--- a/Retail_Dashboard/Retail_Dashboard_Data.xlsx
+++ b/Retail_Dashboard/Retail_Dashboard_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanchit Goel\Desktop\DSM_Github\Excel Pivot Dashboards\Excel_Pivot_Dashboards\Retail_Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanchit Goel\Desktop\DSM_Dashboards_Github\Excel Pivot Dashboards\Excel_Pivot_Dashboards\Retail_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED62F68-9D8E-43BE-B1D7-C89B7C48BF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA44C9C0-02A1-4144-BBCF-9CB260E1D92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -691,36 +691,9 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -747,55 +720,13 @@
       <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -804,103 +735,7 @@
       <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2007,8 +1842,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC3FBF25-B0D4-4B97-B40F-ED404C1BB5B4}" name="PivotTable6" cacheId="3" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M3:N19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{93C2408F-1CD6-43AF-A9ED-FC618ED69D7C}" name="PivotTable5" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J3:K19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="7">
@@ -2023,8 +1858,8 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2112,10 +1947,82 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Customer Retention Rate" fld="3" subtotal="average" baseField="22" baseItem="1" numFmtId="9"/>
+    <dataField name="Sum of New Customers Acquired" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="33">
+  <formats count="7">
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="22" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="4">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+          <reference field="22" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="22" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="4">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+          <reference field="22" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="22" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="4">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+          <reference field="22" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2132,8 +2039,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{93C2408F-1CD6-43AF-A9ED-FC618ED69D7C}" name="PivotTable5" cacheId="3" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J3:K19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D55FF522-580A-4385-B646-D73ED2624417}" name="PivotTable4" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:H19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="7">
@@ -2147,9 +2054,9 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2237,82 +2144,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of New Customers Acquired" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Average of Average Transaction Value" fld="2" subtotal="average" baseField="22" baseItem="1" numFmtId="164"/>
   </dataFields>
-  <formats count="7">
-    <format dxfId="46">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="22" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="44">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="4">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-          <reference field="22" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="42">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="22" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="40">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="4">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-          <reference field="22" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="22" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="4">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-          <reference field="22" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
+  <formats count="1">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2329,8 +2164,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D55FF522-580A-4385-B646-D73ED2624417}" name="PivotTable4" cacheId="3" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G3:H19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B88F9C8-3D29-465D-A4FE-89E65E6F2E5C}" name="PivotTable3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="7">
@@ -2343,8 +2178,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2434,10 +2269,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Average Transaction Value" fld="2" subtotal="average" baseField="22" baseItem="1" numFmtId="164"/>
+    <dataField name="Sum of Monthly Sales" fld="1" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="60">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2454,132 +2289,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B88F9C8-3D29-465D-A4FE-89E65E6F2E5C}" name="PivotTable3" cacheId="3" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="23">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="22"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="16">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Monthly Sales" fld="1" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="63">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65601ABC-8DA0-434B-A048-9DD0C617D8AD}" name="PivotTable1" cacheId="3" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65601ABC-8DA0-434B-A048-9DD0C617D8AD}" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField numFmtId="14" showAll="0">
@@ -2653,7 +2363,7 @@
     <dataField name="Sum of New Customers Acquired" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2662,7 +2372,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2671,7 +2381,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2680,7 +2390,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2702,11 +2412,136 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC3FBF25-B0D4-4B97-B40F-ED404C1BB5B4}" name="PivotTable6" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:N19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="23">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="22"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Customer Retention Rate" fld="3" subtotal="average" baseField="22" baseItem="1" numFmtId="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC05E112-270B-4975-B014-48C3599CB20F}" name="tbl_monthly_summary" displayName="tbl_monthly_summary" ref="A1:V37" totalsRowShown="0">
   <autoFilter ref="A1:V37" xr:uid="{FC05E112-270B-4975-B014-48C3599CB20F}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{1F333233-B264-4652-9AF0-DA8755E8B9DD}" name="Date" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{1F333233-B264-4652-9AF0-DA8755E8B9DD}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{8D87DD94-EB17-4B54-87F8-B65FE5F0B8E3}" name="Monthly Sales"/>
     <tableColumn id="3" xr3:uid="{EF7BB325-A85B-46AC-9FF5-732E5CD0E73E}" name="Average Transaction Value"/>
     <tableColumn id="4" xr3:uid="{5F97A793-6159-410E-927A-25979A84582C}" name="Customer Retention Rate"/>
@@ -3033,7 +2868,7 @@
   <dimension ref="A3:N19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3595,7 +3430,7 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:V37"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
